--- a/Data Files/Input Validation/05. detail1/04. Typecode 8/Auto_Detail1_TC8_C11.xlsx
+++ b/Data Files/Input Validation/05. detail1/04. Typecode 8/Auto_Detail1_TC8_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC6FA4D-A02B-4BDD-AC74-0C7E98236AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B33F7B1-88D3-4470-AE72-E9DB9C35D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-08-01</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -261,7 +258,10 @@
     <t>lf7-acYHIloU4521</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -627,8 +627,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +854,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>53</v>
@@ -936,7 +936,7 @@
         <v>71</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>58</v>
@@ -946,11 +946,11 @@
       </c>
       <c r="AP2" s="2"/>
       <c r="AR2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>56</v>
